--- a/IA_CCBS_BANK_SIDE/Drawdown/DrawDownRetrieve.xlsx
+++ b/IA_CCBS_BANK_SIDE/Drawdown/DrawDownRetrieve.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sw\Relational_Files\Interfaces\Interfaces_new\DrawDown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sw\Relational_Files\Interfaces_aa\Interfaces\IA_CCBS_BANK_SIDE\Drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F46B3CB-9551-432C-AB47-B44471BA52D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5C935D-27FC-43BB-A8FE-2E97FA5520A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{68F28061-2ECD-4B0A-AB1D-3A449686159F}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>Sept 9 2023</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>amount</t>
+  </si>
+  <si>
+    <t>Sept 6 2023</t>
   </si>
 </sst>
 </file>
@@ -532,46 +532,292 @@
     <cellStyle name="60% - Accent4" xfId="2" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="24">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -809,211 +1055,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1095,85 +1136,14 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1189,32 +1159,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6ACF92C-1104-4C93-8F8B-A938A4312D3B}" name="Table2" displayName="Table2" ref="A1:F5" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6ACF92C-1104-4C93-8F8B-A938A4312D3B}" name="Table2" displayName="Table2" ref="A1:F5" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <sortState ref="A2:F4">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{85C05364-CF34-480B-84A9-1E752A61B8E7}" name="Seq" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{B74F6632-9589-464E-84C1-0830E8F1F8D8}" name="Description" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{9572A906-3602-4DBD-9459-262F500E1D9A}" name="iApply" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{88CBB51C-2237-4EBC-90F4-9EFEDD4BEC32}" name="Data Type" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{543BB0EE-DFCA-4B94-847F-73C897029E52}" name="Entities" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2E373EFE-D19B-41E5-92FD-B165DCC3E8F5}" name="Notes" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{85C05364-CF34-480B-84A9-1E752A61B8E7}" name="Seq" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{B74F6632-9589-464E-84C1-0830E8F1F8D8}" name="Description" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{9572A906-3602-4DBD-9459-262F500E1D9A}" name="iApply" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{88CBB51C-2237-4EBC-90F4-9EFEDD4BEC32}" name="Data Type" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{543BB0EE-DFCA-4B94-847F-73C897029E52}" name="Entities" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2E373EFE-D19B-41E5-92FD-B165DCC3E8F5}" name="Notes" dataDxfId="13" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F11F741B-5D22-4BBF-9B93-935C1585CBED}" name="Table22" displayName="Table22" ref="A1:F13" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F11F741B-5D22-4BBF-9B93-935C1585CBED}" name="Table22" displayName="Table22" ref="A1:F13" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:F13" xr:uid="{FE54AB27-2F61-427B-9D73-DA77A59601D2}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F8F1211F-EA34-4B44-896A-D528AAFAE184}" name="Seq" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{03B9C3AE-C4F7-4512-A115-C772590AED2F}" name="Description" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{86EE5336-821C-4C56-8460-1456EB6E1740}" name="iApply" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{33764DB6-8011-4E1D-A09A-295251C6CCE7}" name="Data Type" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{AC1C2596-97D1-445C-B651-3EAD2A6C7064}" name="Entities" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{8FD2DAF4-1939-4C6D-BEB9-074AFC032812}" name="Notes" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{F8F1211F-EA34-4B44-896A-D528AAFAE184}" name="Seq" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{03B9C3AE-C4F7-4512-A115-C772590AED2F}" name="Description" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{86EE5336-821C-4C56-8460-1456EB6E1740}" name="iApply" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{33764DB6-8011-4E1D-A09A-295251C6CCE7}" name="Data Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AC1C2596-97D1-445C-B651-3EAD2A6C7064}" name="Entities" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{8FD2DAF4-1939-4C6D-BEB9-074AFC032812}" name="Notes" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1520,7 +1490,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1565,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -1593,7 +1563,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -1609,7 +1579,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -1668,13 +1638,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -1683,16 +1653,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>51</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="29"/>
     </row>
@@ -1701,16 +1671,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>53</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="27"/>
     </row>
@@ -1719,16 +1689,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>55</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -2246,7 +2216,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2299,16 +2269,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -2317,16 +2287,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="28"/>
     </row>
@@ -2335,16 +2305,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -2353,16 +2323,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="28"/>
     </row>
@@ -2371,16 +2341,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -2389,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>39</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -2408,11 +2378,11 @@
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -2421,16 +2391,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>43</v>
-      </c>
       <c r="E9" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -2439,16 +2409,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -2457,16 +2427,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="28"/>
     </row>
@@ -2475,16 +2445,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="28"/>
     </row>
@@ -2493,16 +2463,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="28"/>
     </row>
@@ -3025,11 +2995,11 @@
     <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="C14:D1048576 C1">
-    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
